--- a/صيدليات دكتور مصطفي طلعت_2026-01-12_14-27.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-12_14-27.xlsx
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>-2:0</t>
   </si>
   <si>
     <t>كريم شعر نيو هير صغير</t>
@@ -1175,7 +1172,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1185,7 +1182,7 @@
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1193,7 +1190,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1219,7 +1216,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1227,7 +1224,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1245,7 +1242,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1276,19 +1273,19 @@
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c t="s" r="A26" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c t="s" r="F26" s="12">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
       <c t="s" r="I26" s="14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
